--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1676,42 +1676,42 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1736,52 +1736,52 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1796,37 +1796,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1856,52 +1856,52 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1916,42 +1916,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1976,52 +1976,52 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2036,52 +2036,52 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2096,42 +2096,42 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2156,52 +2156,52 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2216,52 +2216,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2396,52 +2396,52 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2456,52 +2456,52 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2516,52 +2516,52 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>RTH Altitude : 98FT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2576,52 +2576,52 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2636,42 +2636,42 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2696,52 +2696,52 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2756,37 +2756,37 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2816,52 +2816,52 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2876,22 +2876,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2906,42 +2906,42 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2966,52 +2966,52 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3026,52 +3026,52 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3086,52 +3086,52 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3146,52 +3146,52 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3206,50 +3206,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>45</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Please fly away or land with caution</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1676,42 +1676,42 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1736,52 +1736,52 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1796,37 +1796,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1856,52 +1856,52 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1916,42 +1916,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1976,52 +1976,52 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2036,52 +2036,52 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2096,42 +2096,42 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2156,52 +2156,52 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2216,52 +2216,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2396,52 +2396,52 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2456,52 +2456,52 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2516,52 +2516,52 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>RTH Altitude : 98FT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2576,52 +2576,52 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2636,42 +2636,42 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2696,52 +2696,52 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2756,37 +2756,37 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strong Interference Now . Fly with caution .</t>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2816,52 +2816,52 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2876,22 +2876,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2906,42 +2906,42 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2966,52 +2966,52 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3026,52 +3026,52 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3086,52 +3086,52 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3146,52 +3146,52 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3206,20 +3206,50 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>45</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>Please fly away or land with caution</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
